--- a/Team Blå Stue.xlsx
+++ b/Team Blå Stue.xlsx
@@ -267,7 +267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -388,6 +388,13 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -612,7 +619,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,6 +778,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1287,8 +1312,8 @@
   </sheetPr>
   <dimension ref="A1:BO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1633,7 +1658,7 @@
     </row>
     <row r="5" spans="1:67" s="22" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="56" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="18">
@@ -1646,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="17">
         <v>0</v>
@@ -1654,7 +1679,7 @@
     </row>
     <row r="6" spans="1:67" s="22" customFormat="1" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="56" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="16">
@@ -1667,7 +1692,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="17">
         <v>0</v>
@@ -1675,7 +1700,7 @@
     </row>
     <row r="7" spans="1:67" s="22" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51"/>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="16">
@@ -1696,7 +1721,7 @@
     </row>
     <row r="8" spans="1:67" s="22" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="51"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="53" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="16">
@@ -1717,7 +1742,7 @@
     </row>
     <row r="9" spans="1:67" s="22" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="51"/>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="58" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="16">
@@ -1822,7 +1847,7 @@
     </row>
     <row r="14" spans="1:67" s="22" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51"/>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="55" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="16">
@@ -2011,7 +2036,7 @@
     </row>
     <row r="23" spans="1:7" s="22" customFormat="1" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="52"/>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="54" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="16">
@@ -2198,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="22" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="22" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
       <c r="B32" s="49" t="s">
         <v>43</v>
@@ -2219,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="22" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="22" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>50</v>
       </c>
@@ -2314,7 +2339,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="16">
+  <dataValidations count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Projektplanlæggeren bruger tidsrum som intervaller. Start=1 er tidsrum 1 og varighed=5 betyder, at projektet indeholder 5 tidsrum fra starttidsrummet. Indtast data startende fra B5 for at opdatere diagrammet" sqref="A1"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Indtast en værdi fra 1 til 60, eller vælg et tidsrum på listen – tryk på  ANNULLER, ALT+PIL NED og derefter på ENTER for at vælge en værdi" prompt="Angiv et tidsrum inden for værdimængden af 1 til 60, eller vælg et tidsrum på listen. Tryk på ALT+PIL NED for at navigere på listen, og tryk derefter på ENTER for at vælge en værdi" sqref="H2">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
